--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4000.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4000.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.367934864475762</v>
+        <v>1.395131349563599</v>
       </c>
       <c r="B1">
-        <v>2.491173001600311</v>
+        <v>3.33491039276123</v>
       </c>
       <c r="C1">
-        <v>3.292589734514109</v>
+        <v>5.148038864135742</v>
       </c>
       <c r="D1">
-        <v>3.846141027559297</v>
+        <v>7.214332580566406</v>
       </c>
       <c r="E1">
-        <v>1.942701616000373</v>
+        <v>3.952540159225464</v>
       </c>
     </row>
   </sheetData>
